--- a/nodes_source_analyses/buildings/buildings_space_heater_district_heating_steam_hot_water.xlsx
+++ b/nodes_source_analyses/buildings/buildings_space_heater_district_heating_steam_hot_water.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/buildings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529E13C9-CC2E-E145-863D-E07CBD7F2831}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D0E936-451B-364A-AEBB-0272CBA8F4F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,6 +50,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="315">
   <si>
     <t>Source</t>
   </si>
@@ -1124,6 +1125,9 @@
   </si>
   <si>
     <t>CE Delft - Cegoia parameters</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2123,7 @@
     <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2374,6 +2378,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2404,9 +2409,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="256" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="256" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="31" xfId="258" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2416,7 +2418,10 @@
     <xf numFmtId="0" fontId="32" fillId="13" borderId="29" xfId="258" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="256" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="261">
     <cellStyle name="Currency 4" xfId="260" xr:uid="{81B37BD5-6B62-654F-81E3-8BA15676091D}"/>
@@ -3935,12 +3940,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -4114,23 +4119,23 @@
   </sheetPr>
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="46.1640625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -4140,28 +4145,28 @@
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="175"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="175"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="177"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="2:11" ht="33" customHeight="1">
-      <c r="B4" s="178"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="180"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="181"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
@@ -4358,7 +4363,7 @@
       <c r="D17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="186">
+      <c r="E17" s="172">
         <f>'Research data'!G6</f>
         <v>1.1463199999999998E-2</v>
       </c>
@@ -4545,14 +4550,16 @@
         <v>2</v>
       </c>
       <c r="E27" s="43">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="31"/>
+      <c r="I27" s="187" t="s">
+        <v>314</v>
+      </c>
       <c r="J27" s="104"/>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1">
@@ -4703,19 +4710,19 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="60" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="60" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="60" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="60" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="60" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="60" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="60" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="60" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="60" customWidth="1"/>
     <col min="8" max="8" width="4" style="60" customWidth="1"/>
     <col min="9" max="9" width="16" style="60" customWidth="1"/>
     <col min="10" max="10" width="3" style="61" customWidth="1"/>
     <col min="11" max="11" width="60" style="60" customWidth="1"/>
-    <col min="12" max="16384" width="10.6640625" style="60"/>
+    <col min="12" max="16384" width="10.7109375" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -5021,18 +5028,18 @@
       <selection activeCell="C9" sqref="C9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="46" customWidth="1"/>
     <col min="11" max="11" width="66" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="45"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -5116,14 +5123,14 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="128" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="128" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="128" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="128" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="128" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="128"/>
+    <col min="1" max="1" width="5.85546875" style="128" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="128" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="128" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="128" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="128" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="128"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="17" thickBot="1"/>
@@ -5741,26 +5748,26 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="138"/>
-    <col min="2" max="2" width="24.1640625" style="138" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="138" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="138" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="138" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="138" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="138" customWidth="1"/>
     <col min="5" max="5" width="17" style="138" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="138" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="138" customWidth="1"/>
-    <col min="8" max="8" width="60.83203125" style="138" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="138" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="138" customWidth="1"/>
+    <col min="8" max="8" width="60.85546875" style="138" customWidth="1"/>
     <col min="9" max="16384" width="9" style="138"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="17" thickBot="1">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
     </row>
     <row r="3" spans="2:9" ht="15" thickTop="1">
       <c r="B3" s="139"/>
@@ -7394,50 +7401,50 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="138"/>
-    <col min="2" max="2" width="24.33203125" style="138" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="22.5" style="138" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" style="138" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" style="138" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="138" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="138" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="138" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="138" customWidth="1"/>
-    <col min="13" max="13" width="26.6640625" style="138" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="138" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="138" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="138" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="138" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="138" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" style="138" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" style="138" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="138" customWidth="1"/>
-    <col min="22" max="22" width="10.5" style="138" customWidth="1"/>
-    <col min="23" max="23" width="9.33203125" style="138" customWidth="1"/>
-    <col min="24" max="24" width="8.33203125" style="138" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="138" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="138" customWidth="1"/>
-    <col min="27" max="27" width="10.1640625" style="138" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5" style="138" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" style="138" customWidth="1"/>
-    <col min="30" max="30" width="10.5" style="138" customWidth="1"/>
-    <col min="31" max="31" width="13.1640625" style="138" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" style="138" customWidth="1"/>
-    <col min="33" max="33" width="14.83203125" style="138" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="138" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="22.42578125" style="138" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="138" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="138" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="138" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="138" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="138" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="138" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" style="138" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="138" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="138" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="138" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="138" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="138" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="138" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" style="138" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="138" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="138" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" style="138" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" style="138" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="138" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="138" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" style="138" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" style="138" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="138" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" style="138" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" style="138" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" style="138" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" style="138" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="138"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="17" thickBot="1">
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
     </row>
     <row r="4" spans="2:10" ht="15" thickTop="1"/>
     <row r="5" spans="2:10" ht="15" customHeight="1">
@@ -7617,13 +7624,13 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="17" thickBot="1">
-      <c r="B18" s="182" t="s">
+      <c r="B18" s="186" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
     </row>
     <row r="19" spans="2:6" ht="15" thickTop="1"/>
     <row r="20" spans="2:6">
@@ -7798,13 +7805,13 @@
       </c>
     </row>
     <row r="35" spans="2:6" ht="17" thickBot="1">
-      <c r="B35" s="182" t="s">
+      <c r="B35" s="186" t="s">
         <v>265</v>
       </c>
-      <c r="C35" s="182"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="182"/>
-      <c r="F35" s="182"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
     </row>
     <row r="36" spans="2:6" ht="15" thickTop="1"/>
     <row r="37" spans="2:6">
